--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FixedRateBonds2.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FixedRateBonds2.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="9795" windowWidth="30525" windowHeight="9855"/>
+    <workbookView xWindow="-15" yWindow="9795" windowWidth="29040" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
     <sheet name="FixedRateBonds" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondType">FixedRateBonds!$C$2</definedName>
     <definedName name="FileName">FixedRateBonds!$C$3</definedName>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="259">
   <si>
     <t>General Settings</t>
   </si>
@@ -809,6 +806,9 @@
   </si>
   <si>
     <t>Payment Calendar</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
     <numFmt numFmtId="170" formatCode="General_)"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1299,22 +1299,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1609,7 +1593,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1621,13 +1605,13 @@
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="60" t="s">
         <v>0</v>
@@ -1636,14 +1620,14 @@
       <c r="D2" s="61"/>
       <c r="E2" s="62"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
@@ -1652,7 +1636,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -1663,7 +1647,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
@@ -1674,7 +1658,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
@@ -1685,19 +1669,18 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\010_BondDataBase\</v>
+      <c r="D8" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
@@ -1708,7 +1691,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1735,7 +1718,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="29" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="29" bestFit="1" customWidth="1"/>
@@ -1764,7 +1747,7 @@
     <col min="27" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="19" customFormat="1">
+    <row r="1" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1792,7 +1775,7 @@
       <c r="Y1" s="17"/>
       <c r="Z1" s="18"/>
     </row>
-    <row r="2" spans="1:26" s="19" customFormat="1">
+    <row r="2" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="21" t="s">
         <v>9</v>
@@ -1824,7 +1807,7 @@
       <c r="Y2" s="23"/>
       <c r="Z2" s="24"/>
     </row>
-    <row r="3" spans="1:26" s="19" customFormat="1">
+    <row r="3" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20"/>
       <c r="B3" s="25" t="s">
         <v>31</v>
@@ -1857,7 +1840,7 @@
       <c r="Y3" s="23"/>
       <c r="Z3" s="24"/>
     </row>
-    <row r="4" spans="1:26" s="19" customFormat="1">
+    <row r="4" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="26" t="s">
         <v>29</v>
@@ -1890,7 +1873,7 @@
       <c r="Y4" s="23"/>
       <c r="Z4" s="24"/>
     </row>
-    <row r="5" spans="1:26" s="19" customFormat="1">
+    <row r="5" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="45"/>
       <c r="C5" s="27" t="str">
@@ -1921,7 +1904,7 @@
       <c r="Y5" s="23"/>
       <c r="Z5" s="24"/>
     </row>
-    <row r="6" spans="1:26" s="19" customFormat="1">
+    <row r="6" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -1949,7 +1932,7 @@
       <c r="Y6" s="23"/>
       <c r="Z6" s="24"/>
     </row>
-    <row r="7" spans="1:26" s="19" customFormat="1" ht="22.5">
+    <row r="7" spans="1:26" s="19" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="43"/>
       <c r="C7" s="41" t="s">
@@ -2023,7 +2006,7 @@
       </c>
       <c r="Z7" s="24"/>
     </row>
-    <row r="8" spans="1:26" s="19" customFormat="1">
+    <row r="8" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20"/>
       <c r="B8" s="44" t="s">
         <v>39</v>
@@ -2100,7 +2083,7 @@
       </c>
       <c r="Z8" s="28"/>
     </row>
-    <row r="9" spans="1:26" s="19" customFormat="1">
+    <row r="9" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20"/>
       <c r="B9" s="49" t="s">
         <v>63</v>
@@ -2177,7 +2160,7 @@
       </c>
       <c r="Z9" s="28"/>
     </row>
-    <row r="10" spans="1:26" s="19" customFormat="1">
+    <row r="10" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="49" t="s">
         <v>80</v>
@@ -2254,7 +2237,7 @@
       </c>
       <c r="Z10" s="28"/>
     </row>
-    <row r="11" spans="1:26" s="19" customFormat="1">
+    <row r="11" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20"/>
       <c r="B11" s="44" t="s">
         <v>40</v>
@@ -2331,7 +2314,7 @@
       </c>
       <c r="Z11" s="28"/>
     </row>
-    <row r="12" spans="1:26" s="19" customFormat="1">
+    <row r="12" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="44" t="s">
         <v>41</v>
@@ -2408,7 +2391,7 @@
       </c>
       <c r="Z12" s="28"/>
     </row>
-    <row r="13" spans="1:26" s="19" customFormat="1">
+    <row r="13" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="44" t="s">
         <v>42</v>
@@ -2485,7 +2468,7 @@
       </c>
       <c r="Z13" s="28"/>
     </row>
-    <row r="14" spans="1:26" s="19" customFormat="1">
+    <row r="14" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20"/>
       <c r="B14" s="44" t="s">
         <v>43</v>
@@ -2562,7 +2545,7 @@
       </c>
       <c r="Z14" s="28"/>
     </row>
-    <row r="15" spans="1:26" s="19" customFormat="1">
+    <row r="15" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="44" t="s">
         <v>44</v>
@@ -2639,7 +2622,7 @@
       </c>
       <c r="Z15" s="28"/>
     </row>
-    <row r="16" spans="1:26" s="19" customFormat="1">
+    <row r="16" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="44" t="s">
         <v>45</v>
@@ -2716,7 +2699,7 @@
       </c>
       <c r="Z16" s="28"/>
     </row>
-    <row r="17" spans="1:26" s="19" customFormat="1">
+    <row r="17" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="44" t="s">
         <v>46</v>
@@ -2793,7 +2776,7 @@
       </c>
       <c r="Z17" s="28"/>
     </row>
-    <row r="18" spans="1:26" s="19" customFormat="1">
+    <row r="18" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="44" t="s">
         <v>47</v>
@@ -2870,7 +2853,7 @@
       </c>
       <c r="Z18" s="28"/>
     </row>
-    <row r="19" spans="1:26" s="19" customFormat="1">
+    <row r="19" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="44" t="s">
         <v>48</v>
@@ -2947,7 +2930,7 @@
       </c>
       <c r="Z19" s="28"/>
     </row>
-    <row r="20" spans="1:26" s="19" customFormat="1">
+    <row r="20" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="44" t="s">
         <v>49</v>
@@ -3024,7 +3007,7 @@
       </c>
       <c r="Z20" s="28"/>
     </row>
-    <row r="21" spans="1:26" s="19" customFormat="1">
+    <row r="21" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="44" t="s">
         <v>50</v>
@@ -3101,7 +3084,7 @@
       </c>
       <c r="Z21" s="28"/>
     </row>
-    <row r="22" spans="1:26" s="19" customFormat="1">
+    <row r="22" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="44" t="s">
         <v>51</v>
@@ -3178,7 +3161,7 @@
       </c>
       <c r="Z22" s="28"/>
     </row>
-    <row r="23" spans="1:26" s="19" customFormat="1">
+    <row r="23" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="44" t="s">
         <v>240</v>
@@ -3255,7 +3238,7 @@
       </c>
       <c r="Z23" s="28"/>
     </row>
-    <row r="24" spans="1:26" s="19" customFormat="1">
+    <row r="24" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="44" t="s">
         <v>241</v>
@@ -3332,7 +3315,7 @@
       </c>
       <c r="Z24" s="28"/>
     </row>
-    <row r="25" spans="1:26" s="19" customFormat="1">
+    <row r="25" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="44" t="s">
         <v>242</v>
@@ -3409,7 +3392,7 @@
       </c>
       <c r="Z25" s="28"/>
     </row>
-    <row r="26" spans="1:26" s="19" customFormat="1">
+    <row r="26" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="44" t="s">
         <v>243</v>
@@ -3486,7 +3469,7 @@
       </c>
       <c r="Z26" s="28"/>
     </row>
-    <row r="27" spans="1:26" s="19" customFormat="1">
+    <row r="27" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="44" t="s">
         <v>244</v>
@@ -3563,7 +3546,7 @@
       </c>
       <c r="Z27" s="28"/>
     </row>
-    <row r="28" spans="1:26" s="19" customFormat="1">
+    <row r="28" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="44" t="s">
         <v>245</v>
@@ -3640,7 +3623,7 @@
       </c>
       <c r="Z28" s="28"/>
     </row>
-    <row r="29" spans="1:26" s="19" customFormat="1">
+    <row r="29" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="44" t="s">
         <v>246</v>
@@ -3717,7 +3700,7 @@
       </c>
       <c r="Z29" s="28"/>
     </row>
-    <row r="30" spans="1:26" s="19" customFormat="1">
+    <row r="30" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="44" t="s">
         <v>52</v>
@@ -3794,7 +3777,7 @@
       </c>
       <c r="Z30" s="28"/>
     </row>
-    <row r="31" spans="1:26" s="19" customFormat="1">
+    <row r="31" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="44" t="s">
         <v>53</v>
@@ -3871,7 +3854,7 @@
       </c>
       <c r="Z31" s="28"/>
     </row>
-    <row r="32" spans="1:26" s="19" customFormat="1">
+    <row r="32" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="44" t="s">
         <v>54</v>
@@ -3948,7 +3931,7 @@
       </c>
       <c r="Z32" s="28"/>
     </row>
-    <row r="33" spans="1:26" s="19" customFormat="1">
+    <row r="33" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="44" t="s">
         <v>55</v>
@@ -4025,7 +4008,7 @@
       </c>
       <c r="Z33" s="28"/>
     </row>
-    <row r="34" spans="1:26" s="19" customFormat="1">
+    <row r="34" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="44" t="s">
         <v>56</v>
@@ -4102,7 +4085,7 @@
       </c>
       <c r="Z34" s="28"/>
     </row>
-    <row r="35" spans="1:26" s="19" customFormat="1">
+    <row r="35" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="44" t="s">
         <v>57</v>
@@ -4179,7 +4162,7 @@
       </c>
       <c r="Z35" s="28"/>
     </row>
-    <row r="36" spans="1:26" s="19" customFormat="1">
+    <row r="36" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="44" t="s">
         <v>58</v>
@@ -4256,7 +4239,7 @@
       </c>
       <c r="Z36" s="28"/>
     </row>
-    <row r="37" spans="1:26" s="19" customFormat="1">
+    <row r="37" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="44" t="s">
         <v>59</v>
@@ -4333,7 +4316,7 @@
       </c>
       <c r="Z37" s="28"/>
     </row>
-    <row r="38" spans="1:26" s="19" customFormat="1">
+    <row r="38" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="44" t="s">
         <v>60</v>
@@ -4410,7 +4393,7 @@
       </c>
       <c r="Z38" s="28"/>
     </row>
-    <row r="39" spans="1:26" s="19" customFormat="1">
+    <row r="39" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="44" t="s">
         <v>61</v>
@@ -4487,7 +4470,7 @@
       </c>
       <c r="Z39" s="28"/>
     </row>
-    <row r="40" spans="1:26" s="19" customFormat="1">
+    <row r="40" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="44" t="s">
         <v>62</v>
@@ -4564,7 +4547,7 @@
       </c>
       <c r="Z40" s="28"/>
     </row>
-    <row r="41" spans="1:26" s="19" customFormat="1">
+    <row r="41" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="44" t="s">
         <v>64</v>
@@ -4641,7 +4624,7 @@
       </c>
       <c r="Z41" s="28"/>
     </row>
-    <row r="42" spans="1:26" s="19" customFormat="1">
+    <row r="42" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="44" t="s">
         <v>65</v>
@@ -4718,7 +4701,7 @@
       </c>
       <c r="Z42" s="28"/>
     </row>
-    <row r="43" spans="1:26" s="19" customFormat="1">
+    <row r="43" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="44" t="s">
         <v>66</v>
@@ -4795,7 +4778,7 @@
       </c>
       <c r="Z43" s="28"/>
     </row>
-    <row r="44" spans="1:26" s="19" customFormat="1">
+    <row r="44" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20"/>
       <c r="B44" s="44" t="s">
         <v>67</v>
@@ -4872,7 +4855,7 @@
       </c>
       <c r="Z44" s="28"/>
     </row>
-    <row r="45" spans="1:26" s="19" customFormat="1">
+    <row r="45" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20"/>
       <c r="B45" s="44" t="s">
         <v>68</v>
@@ -4949,7 +4932,7 @@
       </c>
       <c r="Z45" s="28"/>
     </row>
-    <row r="46" spans="1:26" s="19" customFormat="1">
+    <row r="46" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="44" t="s">
         <v>69</v>
@@ -5026,7 +5009,7 @@
       </c>
       <c r="Z46" s="28"/>
     </row>
-    <row r="47" spans="1:26" s="19" customFormat="1">
+    <row r="47" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20"/>
       <c r="B47" s="44" t="s">
         <v>70</v>
@@ -5103,7 +5086,7 @@
       </c>
       <c r="Z47" s="28"/>
     </row>
-    <row r="48" spans="1:26" s="19" customFormat="1">
+    <row r="48" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20"/>
       <c r="B48" s="44" t="s">
         <v>71</v>
@@ -5180,7 +5163,7 @@
       </c>
       <c r="Z48" s="28"/>
     </row>
-    <row r="49" spans="1:26" s="19" customFormat="1">
+    <row r="49" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20"/>
       <c r="B49" s="44" t="s">
         <v>72</v>
@@ -5257,7 +5240,7 @@
       </c>
       <c r="Z49" s="28"/>
     </row>
-    <row r="50" spans="1:26" s="19" customFormat="1">
+    <row r="50" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20"/>
       <c r="B50" s="44" t="s">
         <v>73</v>
@@ -5334,7 +5317,7 @@
       </c>
       <c r="Z50" s="28"/>
     </row>
-    <row r="51" spans="1:26" s="19" customFormat="1">
+    <row r="51" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
       <c r="B51" s="44" t="s">
         <v>74</v>
@@ -5411,7 +5394,7 @@
       </c>
       <c r="Z51" s="28"/>
     </row>
-    <row r="52" spans="1:26" s="19" customFormat="1">
+    <row r="52" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20"/>
       <c r="B52" s="44" t="s">
         <v>75</v>
@@ -5488,7 +5471,7 @@
       </c>
       <c r="Z52" s="28"/>
     </row>
-    <row r="53" spans="1:26" s="19" customFormat="1">
+    <row r="53" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20"/>
       <c r="B53" s="44" t="s">
         <v>76</v>
@@ -5565,7 +5548,7 @@
       </c>
       <c r="Z53" s="28"/>
     </row>
-    <row r="54" spans="1:26" s="19" customFormat="1">
+    <row r="54" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
       <c r="B54" s="44" t="s">
         <v>77</v>
@@ -5642,7 +5625,7 @@
       </c>
       <c r="Z54" s="28"/>
     </row>
-    <row r="55" spans="1:26" s="19" customFormat="1">
+    <row r="55" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20"/>
       <c r="B55" s="44" t="s">
         <v>78</v>
@@ -5719,7 +5702,7 @@
       </c>
       <c r="Z55" s="28"/>
     </row>
-    <row r="56" spans="1:26" s="19" customFormat="1">
+    <row r="56" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="20"/>
       <c r="B56" s="44" t="s">
         <v>79</v>
@@ -5796,7 +5779,7 @@
       </c>
       <c r="Z56" s="28"/>
     </row>
-    <row r="57" spans="1:26" s="19" customFormat="1">
+    <row r="57" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20"/>
       <c r="B57" s="44" t="s">
         <v>81</v>
@@ -5873,7 +5856,7 @@
       </c>
       <c r="Z57" s="28"/>
     </row>
-    <row r="58" spans="1:26" s="19" customFormat="1">
+    <row r="58" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="44" t="s">
         <v>82</v>
@@ -5950,7 +5933,7 @@
       </c>
       <c r="Z58" s="28"/>
     </row>
-    <row r="59" spans="1:26" s="19" customFormat="1">
+    <row r="59" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="44" t="s">
         <v>83</v>
@@ -6027,7 +6010,7 @@
       </c>
       <c r="Z59" s="28"/>
     </row>
-    <row r="60" spans="1:26" s="19" customFormat="1">
+    <row r="60" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
       <c r="B60" s="44" t="s">
         <v>84</v>
@@ -6104,7 +6087,7 @@
       </c>
       <c r="Z60" s="28"/>
     </row>
-    <row r="61" spans="1:26" s="19" customFormat="1">
+    <row r="61" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="44" t="s">
         <v>85</v>
@@ -6181,7 +6164,7 @@
       </c>
       <c r="Z61" s="28"/>
     </row>
-    <row r="62" spans="1:26" s="19" customFormat="1">
+    <row r="62" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="44" t="s">
         <v>86</v>
@@ -6258,7 +6241,7 @@
       </c>
       <c r="Z62" s="28"/>
     </row>
-    <row r="63" spans="1:26" s="19" customFormat="1">
+    <row r="63" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="44" t="s">
         <v>87</v>
@@ -6335,7 +6318,7 @@
       </c>
       <c r="Z63" s="28"/>
     </row>
-    <row r="64" spans="1:26" s="19" customFormat="1">
+    <row r="64" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="20"/>
       <c r="B64" s="44" t="s">
         <v>88</v>
@@ -6412,7 +6395,7 @@
       </c>
       <c r="Z64" s="28"/>
     </row>
-    <row r="65" spans="1:26" s="19" customFormat="1">
+    <row r="65" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20"/>
       <c r="B65" s="44" t="s">
         <v>89</v>
@@ -6489,7 +6472,7 @@
       </c>
       <c r="Z65" s="28"/>
     </row>
-    <row r="66" spans="1:26" s="19" customFormat="1">
+    <row r="66" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20"/>
       <c r="B66" s="44" t="s">
         <v>90</v>
@@ -6566,7 +6549,7 @@
       </c>
       <c r="Z66" s="28"/>
     </row>
-    <row r="67" spans="1:26" s="19" customFormat="1">
+    <row r="67" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20"/>
       <c r="B67" s="44" t="s">
         <v>91</v>
@@ -6643,7 +6626,7 @@
       </c>
       <c r="Z67" s="28"/>
     </row>
-    <row r="68" spans="1:26" s="19" customFormat="1">
+    <row r="68" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
       <c r="B68" s="44" t="s">
         <v>92</v>
@@ -6720,7 +6703,7 @@
       </c>
       <c r="Z68" s="28"/>
     </row>
-    <row r="69" spans="1:26" s="19" customFormat="1">
+    <row r="69" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="44" t="s">
         <v>93</v>
@@ -6797,7 +6780,7 @@
       </c>
       <c r="Z69" s="28"/>
     </row>
-    <row r="70" spans="1:26" s="19" customFormat="1">
+    <row r="70" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="44" t="s">
         <v>94</v>
@@ -6874,7 +6857,7 @@
       </c>
       <c r="Z70" s="28"/>
     </row>
-    <row r="71" spans="1:26" s="19" customFormat="1">
+    <row r="71" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="44" t="s">
         <v>95</v>
@@ -6951,7 +6934,7 @@
       </c>
       <c r="Z71" s="28"/>
     </row>
-    <row r="72" spans="1:26" s="19" customFormat="1">
+    <row r="72" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
       <c r="B72" s="44" t="s">
         <v>96</v>
@@ -7028,7 +7011,7 @@
       </c>
       <c r="Z72" s="28"/>
     </row>
-    <row r="73" spans="1:26" s="19" customFormat="1">
+    <row r="73" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
       <c r="B73" s="44" t="s">
         <v>97</v>
@@ -7105,7 +7088,7 @@
       </c>
       <c r="Z73" s="28"/>
     </row>
-    <row r="74" spans="1:26" s="19" customFormat="1">
+    <row r="74" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="44" t="s">
         <v>98</v>
@@ -7182,7 +7165,7 @@
       </c>
       <c r="Z74" s="28"/>
     </row>
-    <row r="75" spans="1:26" s="19" customFormat="1">
+    <row r="75" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20"/>
       <c r="B75" s="44" t="s">
         <v>99</v>
@@ -7259,7 +7242,7 @@
       </c>
       <c r="Z75" s="28"/>
     </row>
-    <row r="76" spans="1:26" s="19" customFormat="1">
+    <row r="76" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20"/>
       <c r="B76" s="44" t="s">
         <v>100</v>
@@ -7336,7 +7319,7 @@
       </c>
       <c r="Z76" s="28"/>
     </row>
-    <row r="77" spans="1:26" s="19" customFormat="1">
+    <row r="77" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="20"/>
       <c r="B77" s="44" t="s">
         <v>101</v>
@@ -7413,7 +7396,7 @@
       </c>
       <c r="Z77" s="28"/>
     </row>
-    <row r="78" spans="1:26" s="19" customFormat="1">
+    <row r="78" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20"/>
       <c r="B78" s="44" t="s">
         <v>102</v>
@@ -7490,7 +7473,7 @@
       </c>
       <c r="Z78" s="28"/>
     </row>
-    <row r="79" spans="1:26" s="19" customFormat="1">
+    <row r="79" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
       <c r="B79" s="44" t="s">
         <v>103</v>
@@ -7567,7 +7550,7 @@
       </c>
       <c r="Z79" s="28"/>
     </row>
-    <row r="80" spans="1:26" s="19" customFormat="1">
+    <row r="80" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20"/>
       <c r="B80" s="44" t="s">
         <v>104</v>
@@ -7644,7 +7627,7 @@
       </c>
       <c r="Z80" s="28"/>
     </row>
-    <row r="81" spans="1:26" s="19" customFormat="1">
+    <row r="81" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
       <c r="B81" s="44" t="s">
         <v>105</v>
@@ -7721,7 +7704,7 @@
       </c>
       <c r="Z81" s="28"/>
     </row>
-    <row r="82" spans="1:26" s="19" customFormat="1">
+    <row r="82" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="20"/>
       <c r="B82" s="44" t="s">
         <v>106</v>
@@ -7798,7 +7781,7 @@
       </c>
       <c r="Z82" s="28"/>
     </row>
-    <row r="83" spans="1:26" s="19" customFormat="1">
+    <row r="83" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="44" t="s">
         <v>107</v>
@@ -7875,7 +7858,7 @@
       </c>
       <c r="Z83" s="28"/>
     </row>
-    <row r="84" spans="1:26" s="19" customFormat="1">
+    <row r="84" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
       <c r="B84" s="44" t="s">
         <v>108</v>
@@ -7952,7 +7935,7 @@
       </c>
       <c r="Z84" s="28"/>
     </row>
-    <row r="85" spans="1:26" s="19" customFormat="1">
+    <row r="85" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
       <c r="B85" s="44" t="s">
         <v>109</v>
@@ -8029,7 +8012,7 @@
       </c>
       <c r="Z85" s="28"/>
     </row>
-    <row r="86" spans="1:26" s="19" customFormat="1">
+    <row r="86" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
       <c r="B86" s="44" t="s">
         <v>110</v>
@@ -8106,7 +8089,7 @@
       </c>
       <c r="Z86" s="28"/>
     </row>
-    <row r="87" spans="1:26" s="19" customFormat="1">
+    <row r="87" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
       <c r="B87" s="44" t="s">
         <v>111</v>
@@ -8183,7 +8166,7 @@
       </c>
       <c r="Z87" s="28"/>
     </row>
-    <row r="88" spans="1:26" s="19" customFormat="1">
+    <row r="88" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
       <c r="B88" s="44" t="s">
         <v>112</v>
@@ -8260,7 +8243,7 @@
       </c>
       <c r="Z88" s="28"/>
     </row>
-    <row r="89" spans="1:26" s="19" customFormat="1">
+    <row r="89" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="20"/>
       <c r="B89" s="44" t="s">
         <v>113</v>
@@ -8337,7 +8320,7 @@
       </c>
       <c r="Z89" s="28"/>
     </row>
-    <row r="90" spans="1:26" s="19" customFormat="1">
+    <row r="90" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="20"/>
       <c r="B90" s="44" t="s">
         <v>114</v>
@@ -8414,7 +8397,7 @@
       </c>
       <c r="Z90" s="28"/>
     </row>
-    <row r="91" spans="1:26" s="19" customFormat="1">
+    <row r="91" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
       <c r="B91" s="44" t="s">
         <v>115</v>
@@ -8491,7 +8474,7 @@
       </c>
       <c r="Z91" s="28"/>
     </row>
-    <row r="92" spans="1:26" s="19" customFormat="1">
+    <row r="92" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20"/>
       <c r="B92" s="44" t="s">
         <v>116</v>
@@ -8568,7 +8551,7 @@
       </c>
       <c r="Z92" s="28"/>
     </row>
-    <row r="93" spans="1:26" s="19" customFormat="1">
+    <row r="93" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
       <c r="B93" s="44" t="s">
         <v>117</v>
@@ -8645,7 +8628,7 @@
       </c>
       <c r="Z93" s="28"/>
     </row>
-    <row r="94" spans="1:26" s="19" customFormat="1">
+    <row r="94" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20"/>
       <c r="B94" s="44" t="s">
         <v>118</v>
@@ -8722,7 +8705,7 @@
       </c>
       <c r="Z94" s="28"/>
     </row>
-    <row r="95" spans="1:26" s="19" customFormat="1">
+    <row r="95" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20"/>
       <c r="B95" s="44" t="s">
         <v>119</v>
@@ -8799,7 +8782,7 @@
       </c>
       <c r="Z95" s="28"/>
     </row>
-    <row r="96" spans="1:26" s="19" customFormat="1">
+    <row r="96" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="20"/>
       <c r="B96" s="44" t="s">
         <v>120</v>
@@ -8876,7 +8859,7 @@
       </c>
       <c r="Z96" s="28"/>
     </row>
-    <row r="97" spans="1:26" s="19" customFormat="1">
+    <row r="97" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20"/>
       <c r="B97" s="44" t="s">
         <v>121</v>
@@ -8953,7 +8936,7 @@
       </c>
       <c r="Z97" s="28"/>
     </row>
-    <row r="98" spans="1:26" s="19" customFormat="1">
+    <row r="98" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20"/>
       <c r="B98" s="44" t="s">
         <v>122</v>
@@ -9030,7 +9013,7 @@
       </c>
       <c r="Z98" s="28"/>
     </row>
-    <row r="99" spans="1:26" s="19" customFormat="1">
+    <row r="99" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="20"/>
       <c r="B99" s="44" t="s">
         <v>123</v>
@@ -9107,7 +9090,7 @@
       </c>
       <c r="Z99" s="28"/>
     </row>
-    <row r="100" spans="1:26" s="19" customFormat="1">
+    <row r="100" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="20"/>
       <c r="B100" s="44" t="s">
         <v>124</v>
@@ -9184,7 +9167,7 @@
       </c>
       <c r="Z100" s="28"/>
     </row>
-    <row r="101" spans="1:26" s="19" customFormat="1">
+    <row r="101" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="20"/>
       <c r="B101" s="44" t="s">
         <v>125</v>
@@ -9261,7 +9244,7 @@
       </c>
       <c r="Z101" s="28"/>
     </row>
-    <row r="102" spans="1:26" s="19" customFormat="1">
+    <row r="102" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="20"/>
       <c r="B102" s="44" t="s">
         <v>126</v>
@@ -9338,7 +9321,7 @@
       </c>
       <c r="Z102" s="28"/>
     </row>
-    <row r="103" spans="1:26" s="19" customFormat="1">
+    <row r="103" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20"/>
       <c r="B103" s="44" t="s">
         <v>127</v>
@@ -9415,7 +9398,7 @@
       </c>
       <c r="Z103" s="28"/>
     </row>
-    <row r="104" spans="1:26" s="19" customFormat="1">
+    <row r="104" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="20"/>
       <c r="B104" s="44" t="s">
         <v>128</v>
@@ -9492,7 +9475,7 @@
       </c>
       <c r="Z104" s="28"/>
     </row>
-    <row r="105" spans="1:26" s="19" customFormat="1">
+    <row r="105" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="20"/>
       <c r="B105" s="44" t="s">
         <v>129</v>
@@ -9569,7 +9552,7 @@
       </c>
       <c r="Z105" s="28"/>
     </row>
-    <row r="106" spans="1:26" s="19" customFormat="1">
+    <row r="106" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="20"/>
       <c r="B106" s="44" t="s">
         <v>130</v>
@@ -9646,7 +9629,7 @@
       </c>
       <c r="Z106" s="28"/>
     </row>
-    <row r="107" spans="1:26" s="19" customFormat="1">
+    <row r="107" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="20"/>
       <c r="B107" s="44" t="s">
         <v>131</v>
@@ -9723,7 +9706,7 @@
       </c>
       <c r="Z107" s="28"/>
     </row>
-    <row r="108" spans="1:26" s="19" customFormat="1">
+    <row r="108" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="20"/>
       <c r="B108" s="44" t="s">
         <v>132</v>
@@ -9800,7 +9783,7 @@
       </c>
       <c r="Z108" s="28"/>
     </row>
-    <row r="109" spans="1:26" s="19" customFormat="1">
+    <row r="109" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="20"/>
       <c r="B109" s="44" t="s">
         <v>133</v>
@@ -9877,7 +9860,7 @@
       </c>
       <c r="Z109" s="28"/>
     </row>
-    <row r="110" spans="1:26" s="19" customFormat="1">
+    <row r="110" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="20"/>
       <c r="B110" s="44" t="s">
         <v>134</v>
@@ -9954,7 +9937,7 @@
       </c>
       <c r="Z110" s="28"/>
     </row>
-    <row r="111" spans="1:26" s="19" customFormat="1">
+    <row r="111" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20"/>
       <c r="B111" s="44" t="s">
         <v>135</v>
@@ -10031,7 +10014,7 @@
       </c>
       <c r="Z111" s="28"/>
     </row>
-    <row r="112" spans="1:26" s="19" customFormat="1">
+    <row r="112" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="20"/>
       <c r="B112" s="44" t="s">
         <v>136</v>
@@ -10108,7 +10091,7 @@
       </c>
       <c r="Z112" s="28"/>
     </row>
-    <row r="113" spans="1:26" s="19" customFormat="1">
+    <row r="113" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20"/>
       <c r="B113" s="44" t="s">
         <v>137</v>
@@ -10185,7 +10168,7 @@
       </c>
       <c r="Z113" s="28"/>
     </row>
-    <row r="114" spans="1:26" s="19" customFormat="1" ht="12" thickBot="1">
+    <row r="114" spans="1:26" s="19" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="46"/>
       <c r="B114" s="47"/>
       <c r="C114" s="47"/>

--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FixedRateBonds2.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FixedRateBonds2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="258">
   <si>
     <t>General Settings</t>
   </si>
@@ -806,9 +806,6 @@
   </si>
   <si>
     <t>Payment Calendar</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1675,8 +1672,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>258</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\010_BondDataBase\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -1845,9 +1843,9 @@
       <c r="B4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="22">
-        <f>IF(Serialize,_xll.ohObjectSave(X8:Y113,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>212</v>
+      <c r="C4" s="22" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(X8:Y113,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1876,9 +1874,9 @@
     <row r="5" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20"/>
       <c r="B5" s="45"/>
-      <c r="C5" s="27" t="str">
-        <f>_xll.ohRangeRetrieveError(C4)</f>
-        <v/>
+      <c r="C5" s="27" t="e">
+        <f ca="1">_xll.ohRangeRetrieveError(C4)</f>
+        <v>#NAME?</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
